--- a/_Inputs/WEB (Trial 1).xlsx
+++ b/_Inputs/WEB (Trial 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/j_nieto_cgiar_org/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/c_saavedra_cgiar_org/Documents/Documents/GitHub/XX_tool/_Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="381" documentId="13_ncr:40009_{65ECCB8C-5540-43ED-8C15-3FB2DC384E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E488BB-8A22-491F-B6D2-D6E0676057EE}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="13_ncr:40009_{65ECCB8C-5540-43ED-8C15-3FB2DC384E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93E76612-FCEB-4F8B-ACB7-38060CBE4618}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mc Arthur Foundation" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>cat1</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -593,6 +590,9 @@
   </si>
   <si>
     <t>https://www.thehowardgbuffettfoundation.org/focus-areas/#publicsafety</t>
+  </si>
+  <si>
+    <t>Cat</t>
   </si>
 </sst>
 </file>
@@ -1147,10 +1147,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1450,476 +1446,476 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
         <v>44</v>
       </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1939,475 +1935,475 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="118.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="118.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2462,103 +2458,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE17C90E-779C-421F-AF27-694FA4377149}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="72.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="72.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2571,300 +2567,300 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="118.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="118.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2893,211 +2889,211 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="91.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="91.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3128,421 +3124,421 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B71E549-87E5-4ED7-BB75-DA8CF975A965}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
